--- a/models/text_models.xlsx
+++ b/models/text_models.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YShimada-MBP16/Documents/Code_Github/DL_for_ImageData_and_Finetuning/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042C6FE8-B31B-7C46-9C48-5D5BC82867B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF5332A-C3E8-1F43-B640-ADD72BBFF41E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36480" yWindow="3000" windowWidth="28300" windowHeight="17440" activeTab="1" xr2:uid="{F12B5152-89BF-4649-95D6-2F0CC924D9DF}"/>
+    <workbookView xWindow="35840" yWindow="6080" windowWidth="26640" windowHeight="15520" activeTab="1" xr2:uid="{F12B5152-89BF-4649-95D6-2F0CC924D9DF}"/>
   </bookViews>
   <sheets>
-    <sheet name="HT" sheetId="1" r:id="rId1"/>
-    <sheet name="DAI" sheetId="3" r:id="rId2"/>
+    <sheet name="DAI" sheetId="3" r:id="rId1"/>
+    <sheet name="HT" sheetId="1" r:id="rId2"/>
+    <sheet name="HT_UI" sheetId="4" r:id="rId3"/>
+    <sheet name="HT_Error_Models" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="93">
   <si>
     <t>xlm-roberta-base</t>
     <phoneticPr fontId="1"/>
@@ -146,6 +148,277 @@
   </si>
   <si>
     <t>huggingface link</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>distilbert/distilbert-base-uncased</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>google-bert/bert-base-uncased</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Language</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>google-bert/bert-base-cased</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/google-bert/bert-base-cased</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>English</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FacebookAI/roberta-base</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://huggingface.co/FacebookAI/roberta-large</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FacebookAI/roberta-large</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://huggingface.co/distilbert/distilgpt2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>distilbert/distilgpt2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>openai-community/gpt2</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/openai-community/gpt2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FacebookAI/xlm-roberta-base</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>94 Languages</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FacebookAI/xlm-roberta-large</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://huggingface.co/FacebookAI/xlm-roberta-large</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>microsoft/deberta-v3-small</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/microsoft/deberta-v3-small</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>microsoft/deberta-v3-base</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/microsoft/deberta-v3-base</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>microsoft/deberta-v3-large</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://huggingface.co/microsoft/deberta-v3-large</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Model</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://huggingface.co/google-bert/bert-large-cased</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>google-bert/bert-large-cased</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># Parameters (M)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>110M</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>340M</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>250M</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>560M</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>multilingual version of RoBERTa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>125M</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>355M</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vocab Size</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DeBERTa improves the BERT and RoBERTa models using disentangled attention and enhanced mask decoder.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>86M+98M</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>304M+131M</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>44M+98M</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tohoku-nlp/bert-large-japanese-v2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://huggingface.co/tohoku-nlp/bert-large-japanese-v2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>google-bert/bert-base-multilingual-cased</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ModuleNotFoundError: You need to install fugashi to use MecabTokenizer. See https://pypi.org/project/fugashi/ for installation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lxyuan/distilbert-base-multilingual-cased-sentiments-student</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://huggingface.co/lxyuan/distilbert-base-multilingual-cased-sentiments-student</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>papluca/xlm-roberta-base-language-detection</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://huggingface.co/papluca/xlm-roberta-base-language-detection</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fill-Mask</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Text Classification</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Task</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tohoku-nlp/bert-base-japanese</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://huggingface.co/tohoku-nlp/bert-base-japanese</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ModuleNotFoundError: You need to install fugashi to use MecabTokenizer. See https://pypi.org/project/fugashi/ for installation.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HT Default Model</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This model is a fine-tuned version of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>xlm-roberta-base</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> on the Language Identification dataset.</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Text Generation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HT Gid Search</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12 Languages</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>104 Languages</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>21 Languages (Fine tuning)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -153,7 +426,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -187,6 +460,53 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -214,15 +534,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -232,9 +555,37 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+    <cellStyle name="桁区切り" xfId="2" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -254,23 +605,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>880606</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>599843</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{733DE21D-914E-04E4-44DF-5C63423A58ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{724E4C4B-FE4C-D641-9D68-B3880AD0A554}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -286,8 +637,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1905000" y="1016000"/>
-          <a:ext cx="2785606" cy="6426200"/>
+          <a:off x="952500" y="508000"/>
+          <a:ext cx="2504843" cy="5778500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -615,27 +966,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B18B0D3E-4144-7F40-82D0-DF71F1CAF1C8}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8F1C5F-6CC5-084F-AEFF-DCA6B74F1B4C}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -770,4 +1105,516 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B18B0D3E-4144-7F40-82D0-DF71F1CAF1C8}">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="51" customWidth="1"/>
+    <col min="2" max="2" width="47.5703125" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="42">
+      <c r="A1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="4">
+        <v>30000</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="4">
+        <v>30000</v>
+      </c>
+      <c r="G3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="4">
+        <v>30000</v>
+      </c>
+      <c r="G4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="4">
+        <v>30000</v>
+      </c>
+      <c r="G5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" ht="21" customHeight="1">
+      <c r="A10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="4">
+        <v>50000</v>
+      </c>
+      <c r="G10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="63">
+      <c r="A17" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C10:C11"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{D3E415FC-53AB-7A47-B66E-6351DFE8952B}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{D848A1C9-32FD-B942-918A-F463CD719995}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{6A08566D-CCC1-4A45-8D79-3FCE8EF24309}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{21A11601-687F-F74F-97C7-6E0E1DED305C}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{019039C4-DC37-9C48-88FD-B7A0DE32FFCD}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{9011A24E-2C8A-D147-9B65-A209D370D29B}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{EDA7BC27-3A1A-414D-AE17-BCA80FE3B334}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{F2944D7D-38A9-0849-ACD2-BC9F60839587}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{30AD27E8-FCDC-B040-AB52-39A52DE36B4E}"/>
+    <hyperlink ref="B12" r:id="rId10" xr:uid="{A127C078-331A-0049-B66A-F61F2D0F2CAD}"/>
+    <hyperlink ref="B13" r:id="rId11" xr:uid="{2189CF23-3CC4-0249-ACB8-25E32C7A475C}"/>
+    <hyperlink ref="B14" r:id="rId12" xr:uid="{DE86CFA1-98A4-F846-899D-5F76D17AE67F}"/>
+    <hyperlink ref="B5" r:id="rId13" xr:uid="{C725D718-80FC-A54C-9159-E483B2CC9410}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{9ECADD6A-4C75-8E4A-85C3-EB5F03393E75}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{606CF864-BF0E-8C4E-99D0-92080B6083F0}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{C16D9B65-8FFF-7644-8FBB-1527FC3C88BC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE577BE3-2EDE-5F41-A27E-0DDFAA26D360}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A85769-BF3C-D84A-94DE-AF38CA05C17E}">
+  <dimension ref="B2:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="2" max="2" width="35.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="55" customWidth="1"/>
+    <col min="5" max="5" width="56" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{392006AE-8F2E-8F46-8B9D-C44F74E29C55}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{AABFB28F-BBE9-3747-BBC7-0EC51CE29BB5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/models/text_models.xlsx
+++ b/models/text_models.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YShimada-MBP16/Documents/Code_Github/DL_for_ImageData_and_Finetuning/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF5332A-C3E8-1F43-B640-ADD72BBFF41E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F9DD73-C69C-1E42-8BFD-16D5FE855907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35840" yWindow="6080" windowWidth="26640" windowHeight="15520" activeTab="1" xr2:uid="{F12B5152-89BF-4649-95D6-2F0CC924D9DF}"/>
   </bookViews>
@@ -1112,13 +1112,13 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="51" customWidth="1"/>
-    <col min="2" max="2" width="47.5703125" customWidth="1"/>
+    <col min="1" max="1" width="54.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.28515625" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
     <col min="5" max="5" width="28.42578125" customWidth="1"/>
